--- a/data/case1/13/Qlm1_13.xlsx
+++ b/data/case1/13/Qlm1_13.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.096428861853688375</v>
+        <v>-0.07640048516454101</v>
       </c>
       <c r="B1" s="0">
-        <v>0.096375784219333127</v>
+        <v>0.076332132558434296</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.084097037923387852</v>
+        <v>-0.076790567601833004</v>
       </c>
       <c r="B2" s="0">
-        <v>0.08398470757928056</v>
+        <v>0.076698229548283869</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.034284631794099241</v>
+        <v>-0.040810053262102741</v>
       </c>
       <c r="B3" s="0">
-        <v>0.034178020946381338</v>
+        <v>0.040692064513557114</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.026178021048398392</v>
+        <v>-0.032692064606306914</v>
       </c>
       <c r="B4" s="0">
-        <v>0.02571647967917734</v>
+        <v>0.032238048131720376</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.022716479727316496</v>
+        <v>-0.029238048175369791</v>
       </c>
       <c r="B5" s="0">
-        <v>0.021136774433743177</v>
+        <v>0.027686788537423013</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.010381306656874756</v>
+        <v>-0.013710455081239914</v>
       </c>
       <c r="B6" s="0">
-        <v>0.010143250516536639</v>
+        <v>0.013451263186722073</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.00014325064970632795</v>
+        <v>-0.0034512633095911127</v>
       </c>
       <c r="B7" s="0">
-        <v>9.523855921766966e-05</v>
+        <v>0.0033979657403104824</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.009904761307504284</v>
+        <v>0.0066020341362693635</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.0099728565798913316</v>
+        <v>-0.0066779644350769551</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.011972856538742249</v>
+        <v>0.0086779643953436292</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.012023775336532871</v>
+        <v>-0.0087344050312956334</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.014023775297836494</v>
+        <v>0.010734404993163693</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.014023896856016904</v>
+        <v>-0.010735217317703771</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.017023896806301231</v>
+        <v>0.013735217269509548</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.017027897528614666</v>
+        <v>-0.013739576718552193</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.020527897474179824</v>
+        <v>0.017239576665915468</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.020573983305393284</v>
+        <v>-0.01728286329584261</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.02407398325762955</v>
+        <v>0.020782863248194339</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.024102890412469158</v>
+        <v>-0.020807431019406408</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.032102890316594745</v>
+        <v>0.028807430927344946</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.032137842965460628</v>
+        <v>-0.028835097832843992</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080499010412404814</v>
+        <v>0.029835097816138578</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080326926027058931</v>
+        <v>-0.029868127883124096</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060326926284322013</v>
+        <v>-0.0060327011669669695</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060029257309519579</v>
+        <v>0.006002987004738003</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040029257584679456</v>
+        <v>-0.0040029870291933278</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999495208272</v>
+        <v>0.0039999999544866327</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0062787463644013997</v>
+        <v>-0.016101344342224877</v>
       </c>
       <c r="B18" s="0">
-        <v>0.0062112966045226869</v>
+        <v>0.016090392348161231</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0022112966505649645</v>
+        <v>-0.012090392390221805</v>
       </c>
       <c r="B19" s="0">
-        <v>0.0017014384134470539</v>
+        <v>0.012015701682100755</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080155721613852648</v>
+        <v>-0.0080157017278796872</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080055041516295944</v>
+        <v>0.0080054965053530935</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040055042002231644</v>
+        <v>-0.0040054965516462815</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999509578998</v>
+        <v>0.0039999999533018027</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045700075839471666</v>
+        <v>-0.031888176335073126</v>
       </c>
       <c r="B22" s="0">
-        <v>0.04549081792958809</v>
+        <v>0.031707485029301097</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040490817999465634</v>
+        <v>-0.040490452868800375</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040097194395068314</v>
+        <v>0.040097127562274792</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020097194641926386</v>
+        <v>-0.020097127786536717</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999749423125</v>
+        <v>0.019999999772267962</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.0087554678192169888</v>
+        <v>-0.011976333495809399</v>
       </c>
       <c r="B25" s="0">
-        <v>0.0086893115589976588</v>
+        <v>0.011916600152858337</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0061893116073648002</v>
+        <v>-0.0094166001980973135</v>
       </c>
       <c r="B26" s="0">
-        <v>0.0061051110154757282</v>
+        <v>0.0093412470313705143</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0036051110642763007</v>
+        <v>-0.0068412470771415101</v>
       </c>
       <c r="B27" s="0">
-        <v>0.0031135319765129843</v>
+        <v>0.0064050064999783274</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0011135320211819177</v>
+        <v>-0.066223691029193787</v>
       </c>
       <c r="B28" s="0">
-        <v>0.00079332200044035517</v>
+        <v>0.065821283037966971</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081342454587804092</v>
+        <v>-0.058821283144288472</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081163353054956922</v>
+        <v>0.0587134974966812</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021163353762784443</v>
+        <v>0.0012865018443020126</v>
       </c>
       <c r="B30" s="0">
-        <v>0.02102054182556401</v>
+        <v>-0.0013582672419714115</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014020541941668796</v>
+        <v>0.0083582671299087252</v>
       </c>
       <c r="B31" s="0">
-        <v>0.01400079559168077</v>
+        <v>-0.0083659499561221651</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040007957425665097</v>
+        <v>-0.0040008364970152144</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999165587496</v>
+        <v>0.0039999999191113744</v>
       </c>
     </row>
   </sheetData>
